--- a/Bases/Canastas_regionales.xlsx
+++ b/Bases/Canastas_regionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\OneDrive\Documentos\CELINE\IPECD\Pobreza INDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fee6d7d0d7966abb/Documentos/CELINE/FACULTAD/Maestría en Estadística Aplicada/4to semestre/Tesis/Nonresponse-bias-eph/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF26713-7389-447E-86AD-60D62EE89C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{7EF26713-7389-447E-86AD-60D62EE89C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF08E00-44DE-44B6-914E-742DC6C124C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C3806FC5-D462-4D7A-B3E8-EC10E4803AC7}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{C3806FC5-D462-4D7A-B3E8-EC10E4803AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Semestral" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="16">
   <si>
     <t>region</t>
   </si>
@@ -477,7 +477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F253FB2-D404-41E1-BE3C-A8FE08848BB9}">
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
+      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F578" sqref="F578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12004,6 +12004,726 @@
         <v>187172.43</v>
       </c>
       <c r="F559">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>6</v>
+      </c>
+      <c r="B560">
+        <v>2024</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" s="2">
+        <v>92414.67</v>
+      </c>
+      <c r="E560" s="2">
+        <v>193146.66</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>6</v>
+      </c>
+      <c r="B561">
+        <v>2024</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561" s="2">
+        <v>104482.59</v>
+      </c>
+      <c r="E561" s="2">
+        <v>223592.74</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>6</v>
+      </c>
+      <c r="B562">
+        <v>2024</v>
+      </c>
+      <c r="C562">
+        <v>3</v>
+      </c>
+      <c r="D562" s="2">
+        <v>115873.35</v>
+      </c>
+      <c r="E562" s="2">
+        <v>250286.44</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>6</v>
+      </c>
+      <c r="B563">
+        <v>2024</v>
+      </c>
+      <c r="C563">
+        <v>4</v>
+      </c>
+      <c r="D563" s="2">
+        <v>120726.29</v>
+      </c>
+      <c r="E563" s="2">
+        <v>268012.36</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564">
+        <v>2024</v>
+      </c>
+      <c r="C564">
+        <v>5</v>
+      </c>
+      <c r="D564" s="2">
+        <v>125235.49</v>
+      </c>
+      <c r="E564" s="2">
+        <v>275518.08000000002</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>6</v>
+      </c>
+      <c r="B565">
+        <v>2024</v>
+      </c>
+      <c r="C565">
+        <v>6</v>
+      </c>
+      <c r="D565" s="2">
+        <v>127787.79</v>
+      </c>
+      <c r="E565" s="2">
+        <v>282578.89</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>5</v>
+      </c>
+      <c r="B566">
+        <v>2024</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" s="2">
+        <v>81781.45</v>
+      </c>
+      <c r="E566" s="2">
+        <v>182372.63</v>
+      </c>
+      <c r="F566">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>5</v>
+      </c>
+      <c r="B567">
+        <v>2024</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+      <c r="D567" s="2">
+        <v>92340.99</v>
+      </c>
+      <c r="E567" s="2">
+        <v>209614.05</v>
+      </c>
+      <c r="F567">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>5</v>
+      </c>
+      <c r="B568">
+        <v>2024</v>
+      </c>
+      <c r="C568">
+        <v>3</v>
+      </c>
+      <c r="D568" s="2">
+        <v>102081.52</v>
+      </c>
+      <c r="E568" s="2">
+        <v>234787.5</v>
+      </c>
+      <c r="F568">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>5</v>
+      </c>
+      <c r="B569">
+        <v>2024</v>
+      </c>
+      <c r="C569">
+        <v>4</v>
+      </c>
+      <c r="D569" s="2">
+        <v>106688.85</v>
+      </c>
+      <c r="E569" s="2">
+        <v>251785.69</v>
+      </c>
+      <c r="F569">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>5</v>
+      </c>
+      <c r="B570">
+        <v>2024</v>
+      </c>
+      <c r="C570">
+        <v>5</v>
+      </c>
+      <c r="D570" s="2">
+        <v>111369.4</v>
+      </c>
+      <c r="E570" s="2">
+        <v>260604.4</v>
+      </c>
+      <c r="F570">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571">
+        <v>2024</v>
+      </c>
+      <c r="C571">
+        <v>6</v>
+      </c>
+      <c r="D571" s="2">
+        <v>113086.23</v>
+      </c>
+      <c r="E571" s="2">
+        <v>268014.37</v>
+      </c>
+      <c r="F571">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>10</v>
+      </c>
+      <c r="B572">
+        <v>2024</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572" s="2">
+        <v>82551.62</v>
+      </c>
+      <c r="E572" s="2">
+        <v>161801.18</v>
+      </c>
+      <c r="F572">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>10</v>
+      </c>
+      <c r="B573">
+        <v>2024</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+      <c r="D573" s="2">
+        <v>93452.25</v>
+      </c>
+      <c r="E573" s="2">
+        <v>186904.5</v>
+      </c>
+      <c r="F573">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>10</v>
+      </c>
+      <c r="B574">
+        <v>2024</v>
+      </c>
+      <c r="C574">
+        <v>3</v>
+      </c>
+      <c r="D574" s="2">
+        <v>102821.77</v>
+      </c>
+      <c r="E574" s="2">
+        <v>207699.98</v>
+      </c>
+      <c r="F574">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>10</v>
+      </c>
+      <c r="B575">
+        <v>2024</v>
+      </c>
+      <c r="C575">
+        <v>4</v>
+      </c>
+      <c r="D575" s="2">
+        <v>107080.65</v>
+      </c>
+      <c r="E575" s="2">
+        <v>221656.95</v>
+      </c>
+      <c r="F575">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B576">
+        <v>2024</v>
+      </c>
+      <c r="C576">
+        <v>5</v>
+      </c>
+      <c r="D576" s="2">
+        <v>110884.16</v>
+      </c>
+      <c r="E576" s="2">
+        <v>228421.37</v>
+      </c>
+      <c r="F576">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>10</v>
+      </c>
+      <c r="B577">
+        <v>2024</v>
+      </c>
+      <c r="C577">
+        <v>6</v>
+      </c>
+      <c r="D577" s="2">
+        <v>112601.31</v>
+      </c>
+      <c r="E577" s="2">
+        <v>234210.72</v>
+      </c>
+      <c r="F577">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>11</v>
+      </c>
+      <c r="B578">
+        <v>2024</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" s="2">
+        <v>79469.17</v>
+      </c>
+      <c r="E578" s="2">
+        <v>154170.19</v>
+      </c>
+      <c r="F578">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>11</v>
+      </c>
+      <c r="B579">
+        <v>2024</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+      <c r="D579" s="2">
+        <v>89780.97</v>
+      </c>
+      <c r="E579" s="2">
+        <v>177766.32</v>
+      </c>
+      <c r="F579">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>11</v>
+      </c>
+      <c r="B580">
+        <v>2024</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+      <c r="D580" s="2">
+        <v>99259.51</v>
+      </c>
+      <c r="E580" s="2">
+        <v>198519.02</v>
+      </c>
+      <c r="F580">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>11</v>
+      </c>
+      <c r="B581">
+        <v>2024</v>
+      </c>
+      <c r="C581">
+        <v>4</v>
+      </c>
+      <c r="D581" s="2">
+        <v>104132.73</v>
+      </c>
+      <c r="E581" s="2">
+        <v>214513.42</v>
+      </c>
+      <c r="F581">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>11</v>
+      </c>
+      <c r="B582">
+        <v>2024</v>
+      </c>
+      <c r="C582">
+        <v>5</v>
+      </c>
+      <c r="D582" s="2">
+        <v>108650.65</v>
+      </c>
+      <c r="E582" s="2">
+        <v>221647.33</v>
+      </c>
+      <c r="F582">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583">
+        <v>2024</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583" s="2">
+        <v>110531.83</v>
+      </c>
+      <c r="E583" s="2">
+        <v>227695.57</v>
+      </c>
+      <c r="F583">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584">
+        <v>2024</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584" s="2">
+        <v>91112.1</v>
+      </c>
+      <c r="E584" s="2">
+        <v>190424.29</v>
+      </c>
+      <c r="F584">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>12</v>
+      </c>
+      <c r="B585">
+        <v>2024</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+      <c r="D585" s="2">
+        <v>102830.93</v>
+      </c>
+      <c r="E585" s="2">
+        <v>220058.19</v>
+      </c>
+      <c r="F585">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586">
+        <v>2024</v>
+      </c>
+      <c r="C586">
+        <v>3</v>
+      </c>
+      <c r="D586" s="2">
+        <v>113713.82</v>
+      </c>
+      <c r="E586" s="2">
+        <v>245621.85</v>
+      </c>
+      <c r="F586">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587">
+        <v>2024</v>
+      </c>
+      <c r="C587">
+        <v>4</v>
+      </c>
+      <c r="D587" s="2">
+        <v>118713.98</v>
+      </c>
+      <c r="E587" s="2">
+        <v>262357.90000000002</v>
+      </c>
+      <c r="F587">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588">
+        <v>2024</v>
+      </c>
+      <c r="C588">
+        <v>5</v>
+      </c>
+      <c r="D588" s="2">
+        <v>123897.74</v>
+      </c>
+      <c r="E588" s="2">
+        <v>271336.05</v>
+      </c>
+      <c r="F588">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>12</v>
+      </c>
+      <c r="B589">
+        <v>2024</v>
+      </c>
+      <c r="C589">
+        <v>6</v>
+      </c>
+      <c r="D589" s="2">
+        <v>125810.04</v>
+      </c>
+      <c r="E589" s="2">
+        <v>279298.28999999998</v>
+      </c>
+      <c r="F589">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>13</v>
+      </c>
+      <c r="B590">
+        <v>2024</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" s="2">
+        <v>94576.83</v>
+      </c>
+      <c r="E590" s="2">
+        <v>225092.86</v>
+      </c>
+      <c r="F590">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>13</v>
+      </c>
+      <c r="B591">
+        <v>2024</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+      <c r="D591" s="2">
+        <v>107237.82</v>
+      </c>
+      <c r="E591" s="2">
+        <v>259515.51999999999</v>
+      </c>
+      <c r="F591">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>13</v>
+      </c>
+      <c r="B592">
+        <v>2024</v>
+      </c>
+      <c r="C592">
+        <v>3</v>
+      </c>
+      <c r="D592" s="2">
+        <v>118222.24</v>
+      </c>
+      <c r="E592" s="2">
+        <v>289644.49</v>
+      </c>
+      <c r="F592">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>13</v>
+      </c>
+      <c r="B593">
+        <v>2024</v>
+      </c>
+      <c r="C593">
+        <v>4</v>
+      </c>
+      <c r="D593" s="2">
+        <v>122901.55</v>
+      </c>
+      <c r="E593" s="2">
+        <v>308482.89</v>
+      </c>
+      <c r="F593">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>13</v>
+      </c>
+      <c r="B594">
+        <v>2024</v>
+      </c>
+      <c r="C594">
+        <v>5</v>
+      </c>
+      <c r="D594" s="2">
+        <v>127096.55</v>
+      </c>
+      <c r="E594" s="2">
+        <v>316470.40999999997</v>
+      </c>
+      <c r="F594">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>13</v>
+      </c>
+      <c r="B595">
+        <v>2024</v>
+      </c>
+      <c r="C595">
+        <v>6</v>
+      </c>
+      <c r="D595" s="2">
+        <v>129214.63</v>
+      </c>
+      <c r="E595" s="2">
+        <v>325620.87</v>
+      </c>
+      <c r="F595">
         <v>44</v>
       </c>
     </row>

--- a/Bases/Canastas_regionales.xlsx
+++ b/Bases/Canastas_regionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fee6d7d0d7966abb/Documentos/CELINE/FACULTAD/Maestría en Estadística Aplicada/4to semestre/Tesis/Nonresponse-bias-eph/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{7EF26713-7389-447E-86AD-60D62EE89C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF08E00-44DE-44B6-914E-742DC6C124C9}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{7EF26713-7389-447E-86AD-60D62EE89C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96147335-5CB0-4D8A-9BF9-C72DD15417D3}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{C3806FC5-D462-4D7A-B3E8-EC10E4803AC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C3806FC5-D462-4D7A-B3E8-EC10E4803AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Semestral" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="16">
   <si>
     <t>region</t>
   </si>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02E72F-A123-41D9-B751-3A33AA20F15C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F253FB2-D404-41E1-BE3C-A8FE08848BB9}">
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F578" sqref="F578"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G624" sqref="G624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12724,6 +12724,726 @@
         <v>325620.87</v>
       </c>
       <c r="F595">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>6</v>
+      </c>
+      <c r="B596">
+        <v>2024</v>
+      </c>
+      <c r="C596">
+        <v>7</v>
+      </c>
+      <c r="D596" s="2">
+        <v>131293.57</v>
+      </c>
+      <c r="E596" s="2">
+        <v>291471.73</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>6</v>
+      </c>
+      <c r="B597">
+        <v>2024</v>
+      </c>
+      <c r="C597">
+        <v>8</v>
+      </c>
+      <c r="D597" s="2">
+        <v>136399.29999999999</v>
+      </c>
+      <c r="E597" s="2">
+        <v>304170.44</v>
+      </c>
+      <c r="F597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>6</v>
+      </c>
+      <c r="B598">
+        <v>2024</v>
+      </c>
+      <c r="C598">
+        <v>9</v>
+      </c>
+      <c r="D598" s="2">
+        <v>138744.31</v>
+      </c>
+      <c r="E598" s="2">
+        <v>312174.7</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>6</v>
+      </c>
+      <c r="B599">
+        <v>2024</v>
+      </c>
+      <c r="C599">
+        <v>10</v>
+      </c>
+      <c r="D599" s="2">
+        <v>140653.57</v>
+      </c>
+      <c r="E599" s="2">
+        <v>319283.59999999998</v>
+      </c>
+      <c r="F599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>6</v>
+      </c>
+      <c r="B600">
+        <v>2024</v>
+      </c>
+      <c r="C600">
+        <v>11</v>
+      </c>
+      <c r="D600" s="2">
+        <v>142148.73000000001</v>
+      </c>
+      <c r="E600" s="2">
+        <v>324099.09999999998</v>
+      </c>
+      <c r="F600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>6</v>
+      </c>
+      <c r="B601">
+        <v>2024</v>
+      </c>
+      <c r="C601">
+        <v>12</v>
+      </c>
+      <c r="D601" s="2">
+        <v>145408.95999999999</v>
+      </c>
+      <c r="E601" s="2">
+        <v>331532.43</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>5</v>
+      </c>
+      <c r="B602">
+        <v>2024</v>
+      </c>
+      <c r="C602">
+        <v>7</v>
+      </c>
+      <c r="D602" s="2">
+        <v>116989.25</v>
+      </c>
+      <c r="E602" s="2">
+        <v>276094.63</v>
+      </c>
+      <c r="F602">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>5</v>
+      </c>
+      <c r="B603">
+        <v>2024</v>
+      </c>
+      <c r="C603">
+        <v>8</v>
+      </c>
+      <c r="D603" s="2">
+        <v>121225.65</v>
+      </c>
+      <c r="E603" s="2">
+        <v>287304.78999999998</v>
+      </c>
+      <c r="F603">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>5</v>
+      </c>
+      <c r="B604">
+        <v>2024</v>
+      </c>
+      <c r="C604">
+        <v>9</v>
+      </c>
+      <c r="D604" s="2">
+        <v>123904.47</v>
+      </c>
+      <c r="E604" s="2">
+        <v>297370.73</v>
+      </c>
+      <c r="F604">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>5</v>
+      </c>
+      <c r="B605">
+        <v>2024</v>
+      </c>
+      <c r="C605">
+        <v>10</v>
+      </c>
+      <c r="D605" s="2">
+        <v>125506.37</v>
+      </c>
+      <c r="E605" s="2">
+        <v>302470.34999999998</v>
+      </c>
+      <c r="F605">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>5</v>
+      </c>
+      <c r="B606">
+        <v>2024</v>
+      </c>
+      <c r="C606">
+        <v>11</v>
+      </c>
+      <c r="D606" s="2">
+        <v>126585.52</v>
+      </c>
+      <c r="E606" s="2">
+        <v>307602.81</v>
+      </c>
+      <c r="F606">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>5</v>
+      </c>
+      <c r="B607">
+        <v>2024</v>
+      </c>
+      <c r="C607">
+        <v>12</v>
+      </c>
+      <c r="D607" s="2">
+        <v>128986.91</v>
+      </c>
+      <c r="E607" s="2">
+        <v>313438.19</v>
+      </c>
+      <c r="F607">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>10</v>
+      </c>
+      <c r="B608">
+        <v>2024</v>
+      </c>
+      <c r="C608">
+        <v>7</v>
+      </c>
+      <c r="D608" s="2">
+        <v>117281.13</v>
+      </c>
+      <c r="E608" s="2">
+        <v>242771.94</v>
+      </c>
+      <c r="F608">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>10</v>
+      </c>
+      <c r="B609">
+        <v>2024</v>
+      </c>
+      <c r="C609">
+        <v>8</v>
+      </c>
+      <c r="D609" s="2">
+        <v>121421.09</v>
+      </c>
+      <c r="E609" s="2">
+        <v>252555.87</v>
+      </c>
+      <c r="F609">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610">
+        <v>2024</v>
+      </c>
+      <c r="C610">
+        <v>9</v>
+      </c>
+      <c r="D610" s="2">
+        <v>123943.26</v>
+      </c>
+      <c r="E610" s="2">
+        <v>261520.28</v>
+      </c>
+      <c r="F610">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611">
+        <v>2024</v>
+      </c>
+      <c r="C611">
+        <v>10</v>
+      </c>
+      <c r="D611" s="2">
+        <v>125074.63</v>
+      </c>
+      <c r="E611" s="2">
+        <v>265158.21999999997</v>
+      </c>
+      <c r="F611">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>10</v>
+      </c>
+      <c r="B612">
+        <v>2024</v>
+      </c>
+      <c r="C612">
+        <v>11</v>
+      </c>
+      <c r="D612" s="2">
+        <v>126072.12</v>
+      </c>
+      <c r="E612" s="2">
+        <v>269794.34000000003</v>
+      </c>
+      <c r="F612">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>10</v>
+      </c>
+      <c r="B613">
+        <v>2024</v>
+      </c>
+      <c r="C613">
+        <v>12</v>
+      </c>
+      <c r="D613" s="2">
+        <v>128807.45</v>
+      </c>
+      <c r="E613" s="2">
+        <v>275647.94</v>
+      </c>
+      <c r="F613">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614">
+        <v>2024</v>
+      </c>
+      <c r="C614">
+        <v>7</v>
+      </c>
+      <c r="D614" s="2">
+        <v>114341.55</v>
+      </c>
+      <c r="E614" s="2">
+        <v>235543.59</v>
+      </c>
+      <c r="F614">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615">
+        <v>2024</v>
+      </c>
+      <c r="C615">
+        <v>8</v>
+      </c>
+      <c r="D615" s="2">
+        <v>118519.71</v>
+      </c>
+      <c r="E615" s="2">
+        <v>245335.8</v>
+      </c>
+      <c r="F615">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>11</v>
+      </c>
+      <c r="B616">
+        <v>2024</v>
+      </c>
+      <c r="C616">
+        <v>9</v>
+      </c>
+      <c r="D616" s="2">
+        <v>121209.86</v>
+      </c>
+      <c r="E616" s="2">
+        <v>253328.61</v>
+      </c>
+      <c r="F616">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617">
+        <v>2024</v>
+      </c>
+      <c r="C617">
+        <v>10</v>
+      </c>
+      <c r="D617" s="2">
+        <v>122466.36</v>
+      </c>
+      <c r="E617" s="2">
+        <v>257179.36</v>
+      </c>
+      <c r="F617">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618">
+        <v>2024</v>
+      </c>
+      <c r="C618">
+        <v>11</v>
+      </c>
+      <c r="D618" s="2">
+        <v>123217.27</v>
+      </c>
+      <c r="E618" s="2">
+        <v>261220.61</v>
+      </c>
+      <c r="F618">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>11</v>
+      </c>
+      <c r="B619">
+        <v>2024</v>
+      </c>
+      <c r="C619">
+        <v>12</v>
+      </c>
+      <c r="D619" s="2">
+        <v>125265.95</v>
+      </c>
+      <c r="E619" s="2">
+        <v>265563.81</v>
+      </c>
+      <c r="F619">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>12</v>
+      </c>
+      <c r="B620">
+        <v>2024</v>
+      </c>
+      <c r="C620">
+        <v>7</v>
+      </c>
+      <c r="D620" s="2">
+        <v>129850.23</v>
+      </c>
+      <c r="E620" s="2">
+        <v>288267.51</v>
+      </c>
+      <c r="F620">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621">
+        <v>2024</v>
+      </c>
+      <c r="C621">
+        <v>8</v>
+      </c>
+      <c r="D621" s="2">
+        <v>134537.47</v>
+      </c>
+      <c r="E621" s="2">
+        <v>300018.56</v>
+      </c>
+      <c r="F621">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>12</v>
+      </c>
+      <c r="B622">
+        <v>2024</v>
+      </c>
+      <c r="C622">
+        <v>9</v>
+      </c>
+      <c r="D622" s="2">
+        <v>137273.10999999999</v>
+      </c>
+      <c r="E622" s="2">
+        <v>308864.5</v>
+      </c>
+      <c r="F622">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623">
+        <v>2024</v>
+      </c>
+      <c r="C623">
+        <v>10</v>
+      </c>
+      <c r="D623" s="2">
+        <v>139071.54</v>
+      </c>
+      <c r="E623" s="2">
+        <v>315692.40000000002</v>
+      </c>
+      <c r="F623">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624">
+        <v>2024</v>
+      </c>
+      <c r="C624">
+        <v>11</v>
+      </c>
+      <c r="D624" s="2">
+        <v>140405.42000000001</v>
+      </c>
+      <c r="E624" s="2">
+        <v>320124.36</v>
+      </c>
+      <c r="F624">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625">
+        <v>2024</v>
+      </c>
+      <c r="C625">
+        <v>12</v>
+      </c>
+      <c r="D625" s="2">
+        <v>143301.51999999999</v>
+      </c>
+      <c r="E625" s="2">
+        <v>326727.46999999997</v>
+      </c>
+      <c r="F625">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>13</v>
+      </c>
+      <c r="B626">
+        <v>2024</v>
+      </c>
+      <c r="C626">
+        <v>7</v>
+      </c>
+      <c r="D626" s="2">
+        <v>135018.79</v>
+      </c>
+      <c r="E626" s="2">
+        <v>340247.35</v>
+      </c>
+      <c r="F626">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>13</v>
+      </c>
+      <c r="B627">
+        <v>2024</v>
+      </c>
+      <c r="C627">
+        <v>8</v>
+      </c>
+      <c r="D627" s="2">
+        <v>140310.04999999999</v>
+      </c>
+      <c r="E627" s="2">
+        <v>354984.43</v>
+      </c>
+      <c r="F627">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>13</v>
+      </c>
+      <c r="B628">
+        <v>2024</v>
+      </c>
+      <c r="C628">
+        <v>9</v>
+      </c>
+      <c r="D628" s="2">
+        <v>143240.47</v>
+      </c>
+      <c r="E628" s="2">
+        <v>365263.2</v>
+      </c>
+      <c r="F628">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>13</v>
+      </c>
+      <c r="B629">
+        <v>2024</v>
+      </c>
+      <c r="C629">
+        <v>10</v>
+      </c>
+      <c r="D629" s="2">
+        <v>144725.88</v>
+      </c>
+      <c r="E629" s="2">
+        <v>371945.51</v>
+      </c>
+      <c r="F629">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>13</v>
+      </c>
+      <c r="B630">
+        <v>2024</v>
+      </c>
+      <c r="C630">
+        <v>11</v>
+      </c>
+      <c r="D630" s="2">
+        <v>146258.09</v>
+      </c>
+      <c r="E630" s="2">
+        <v>378808.45</v>
+      </c>
+      <c r="F630">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>13</v>
+      </c>
+      <c r="B631">
+        <v>2024</v>
+      </c>
+      <c r="C631">
+        <v>12</v>
+      </c>
+      <c r="D631" s="2">
+        <v>149369.57999999999</v>
+      </c>
+      <c r="E631" s="2">
+        <v>386867.21</v>
+      </c>
+      <c r="F631">
         <v>44</v>
       </c>
     </row>
